--- a/Flujo de caja. Epoch Academyxlsx.xlsx
+++ b/Flujo de caja. Epoch Academyxlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A6C355-EF9B-B24D-9EE7-E2A4AAB9C4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEE3D21-CAA7-2342-BFE5-54B43D82DEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -820,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7">
-        <v>190476.19047619047</v>
+        <v>1904762</v>
       </c>
       <c r="C14" s="3">
         <v>40000</v>
@@ -1315,18 +1315,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1349,18 +1349,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C46E565-7D65-44D1-810A-0E2049BC8ABF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23EC88B3-9A0D-4617-BE7E-DAD1A0F38BEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C46E565-7D65-44D1-810A-0E2049BC8ABF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Flujo de caja. Epoch Academyxlsx.xlsx
+++ b/Flujo de caja. Epoch Academyxlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEE3D21-CAA7-2342-BFE5-54B43D82DEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3A097C-175B-2942-AD8E-A7505EC9B265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Mes</t>
   </si>
@@ -182,7 +182,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -192,7 +192,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -201,7 +200,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -500,119 +498,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84365BD5-5644-A74F-AAE7-1066C0464936}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="6"/>
-    <col min="2" max="2" width="14.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="1"/>
-    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="10.7109375" style="5"/>
+    <col min="2" max="2" width="10.7109375" style="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>17229</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>361.80900000000003</v>
       </c>
       <c r="D2" s="10">
         <v>361.80900000000003</v>
       </c>
-      <c r="E2" s="8">
-        <v>17229</v>
-      </c>
-      <c r="F2" s="8">
-        <v>361.80900000000003</v>
-      </c>
-      <c r="G2" s="12">
-        <v>361.80900000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>34458</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>723.61800000000005</v>
       </c>
       <c r="D3" s="10">
         <v>723.61800000000005</v>
       </c>
-      <c r="E3" s="7">
-        <v>34458</v>
-      </c>
-      <c r="F3" s="7">
-        <v>723.61800000000005</v>
-      </c>
-      <c r="G3" s="12">
-        <v>723.61800000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>153571</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>3224.991</v>
       </c>
       <c r="D4" s="10">
         <v>3224.991</v>
       </c>
-      <c r="E4" s="7">
-        <v>153571</v>
-      </c>
-      <c r="F4" s="7">
-        <v>3224.991</v>
-      </c>
-      <c r="G4" s="12">
-        <v>3224.991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>190476.19047619047</v>
       </c>
       <c r="C5" s="3">
@@ -621,21 +581,12 @@
       <c r="D5" s="10">
         <v>4000</v>
       </c>
-      <c r="E5" s="7">
-        <v>190476.19047619047</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G5" s="12">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>238095.23809523808</v>
       </c>
       <c r="C6" s="3">
@@ -644,21 +595,12 @@
       <c r="D6" s="10">
         <v>5000</v>
       </c>
-      <c r="E6" s="7">
-        <v>238095.23809523808</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G6" s="12">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>333333.33333333331</v>
       </c>
       <c r="C7" s="3">
@@ -667,21 +609,12 @@
       <c r="D7" s="10">
         <v>7000</v>
       </c>
-      <c r="E7" s="7">
-        <v>333333.33333333331</v>
-      </c>
-      <c r="F7" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G7" s="12">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>409523.80952380953</v>
       </c>
       <c r="C8" s="3">
@@ -690,90 +623,54 @@
       <c r="D8" s="10">
         <v>17200</v>
       </c>
-      <c r="E8" s="7">
-        <v>409523.80952380953</v>
-      </c>
-      <c r="F8" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G8" s="12">
-        <v>17200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>571428.57142857136</v>
       </c>
       <c r="C9" s="3">
         <v>12000</v>
       </c>
       <c r="D9" s="10">
-        <v>28800</v>
-      </c>
-      <c r="E9" s="7">
-        <v>571428.57142857136</v>
-      </c>
-      <c r="F9" s="3">
-        <v>12000</v>
-      </c>
-      <c r="G9" s="12">
         <v>28863</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>714285.7142857142</v>
       </c>
       <c r="C10" s="3">
         <v>15000</v>
       </c>
       <c r="D10" s="10">
-        <v>39000</v>
-      </c>
-      <c r="E10" s="7">
-        <v>714285.7142857142</v>
-      </c>
-      <c r="F10" s="3">
-        <v>15000</v>
-      </c>
-      <c r="G10" s="12">
         <v>39728.025000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>952380.95238095231</v>
       </c>
       <c r="C11" s="3">
         <v>20000</v>
       </c>
       <c r="D11" s="10">
-        <v>56999.999999999993</v>
-      </c>
-      <c r="E11" s="7">
-        <v>952380.95238095231</v>
-      </c>
-      <c r="F11" s="3">
-        <v>20000</v>
-      </c>
-      <c r="G11" s="12">
         <v>57609</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>1228571.4285714284</v>
       </c>
       <c r="C12" s="3">
@@ -782,313 +679,187 @@
       <c r="D12" s="10">
         <v>77399.999999999985</v>
       </c>
-      <c r="E12" s="7">
-        <v>1228571.4285714284</v>
-      </c>
-      <c r="F12" s="3">
-        <v>25799.999999999996</v>
-      </c>
-      <c r="G12" s="12">
-        <v>77399.999999999985</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>1428572</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>30000.012000000002</v>
       </c>
       <c r="D13" s="10">
-        <v>30000.012000000002</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1428572</v>
-      </c>
-      <c r="F13" s="7">
-        <v>30000.012000000002</v>
-      </c>
-      <c r="G13" s="12">
         <v>91950</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
-        <v>1904762</v>
+      <c r="B14" s="6">
+        <f>40000/2.1%</f>
+        <v>1904761.9047619046</v>
       </c>
       <c r="C14" s="3">
         <v>40000</v>
       </c>
       <c r="D14" s="10">
-        <v>40000</v>
-      </c>
-      <c r="E14" s="7">
-        <f>40000/2.1%</f>
-        <v>1904761.9047619046</v>
-      </c>
-      <c r="F14" s="3">
-        <v>40000</v>
-      </c>
-      <c r="G14" s="12">
         <v>128585</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>2380952.3809523806</v>
       </c>
       <c r="C15" s="3">
         <v>49999.999999999993</v>
       </c>
       <c r="D15" s="10">
-        <v>50000</v>
-      </c>
-      <c r="E15" s="7">
-        <v>2380952.3809523806</v>
-      </c>
-      <c r="F15" s="3">
-        <v>49999.999999999993</v>
-      </c>
-      <c r="G15" s="12">
         <v>167852</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>2619047.6190476189</v>
       </c>
       <c r="C16" s="3">
         <v>55000</v>
       </c>
       <c r="D16" s="10">
-        <v>55000</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2619047.6190476189</v>
-      </c>
-      <c r="F16" s="3">
-        <v>55000</v>
-      </c>
-      <c r="G16" s="12">
         <v>188408</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>2857142.8571428568</v>
       </c>
       <c r="C17" s="3">
         <v>60000</v>
       </c>
       <c r="D17" s="10">
-        <v>60000</v>
-      </c>
-      <c r="E17" s="7">
-        <v>2857142.8571428568</v>
-      </c>
-      <c r="F17" s="3">
-        <v>60000</v>
-      </c>
-      <c r="G17" s="12">
         <v>209545</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>3095238.0952380951</v>
       </c>
       <c r="C18" s="3">
         <v>65000</v>
       </c>
       <c r="D18" s="10">
-        <v>65000</v>
-      </c>
-      <c r="E18" s="7">
-        <v>3095238.0952380951</v>
-      </c>
-      <c r="F18" s="3">
-        <v>65000</v>
-      </c>
-      <c r="G18" s="12">
         <v>231239</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>3333333.333333333</v>
       </c>
       <c r="C19" s="3">
         <v>70000</v>
       </c>
       <c r="D19" s="10">
-        <v>70000</v>
-      </c>
-      <c r="E19" s="7">
-        <v>3333333.333333333</v>
-      </c>
-      <c r="F19" s="3">
-        <v>70000</v>
-      </c>
-      <c r="G19" s="12">
         <v>253463.00000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>3571428.5714285714</v>
       </c>
       <c r="C20" s="3">
         <v>75000</v>
       </c>
       <c r="D20" s="10">
-        <v>75000</v>
-      </c>
-      <c r="E20" s="7">
-        <v>3571428.5714285714</v>
-      </c>
-      <c r="F20" s="3">
-        <v>75000</v>
-      </c>
-      <c r="G20" s="12">
         <v>277196</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>3809523.8095238092</v>
       </c>
       <c r="C21" s="3">
         <v>80000</v>
       </c>
       <c r="D21" s="10">
-        <v>80000</v>
-      </c>
-      <c r="E21" s="7">
-        <v>3809523.8095238092</v>
-      </c>
-      <c r="F21" s="3">
-        <v>80000</v>
-      </c>
-      <c r="G21" s="12">
         <v>299412</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>4047619.0476190476</v>
       </c>
       <c r="C22" s="3">
         <v>85000</v>
       </c>
       <c r="D22" s="10">
-        <v>85000</v>
-      </c>
-      <c r="E22" s="7">
-        <v>4047619.0476190476</v>
-      </c>
-      <c r="F22" s="3">
-        <v>85000</v>
-      </c>
-      <c r="G22" s="12">
         <v>323089</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>4285714.2857142854</v>
       </c>
       <c r="C23" s="3">
         <v>90000</v>
       </c>
       <c r="D23" s="10">
-        <v>90000</v>
-      </c>
-      <c r="E23" s="7">
-        <v>4285714.2857142854</v>
-      </c>
-      <c r="F23" s="3">
-        <v>90000</v>
-      </c>
-      <c r="G23" s="12">
         <v>347203</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>4523809.5238095233</v>
       </c>
       <c r="C24" s="3">
         <v>95000</v>
       </c>
       <c r="D24" s="10">
-        <v>95000</v>
-      </c>
-      <c r="E24" s="7">
-        <v>4523809.5238095233</v>
-      </c>
-      <c r="F24" s="3">
-        <v>95000</v>
-      </c>
-      <c r="G24" s="12">
         <v>371732</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>4914286</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>103200.00600000001</v>
       </c>
       <c r="D25" s="10">
-        <v>103200.00600000001</v>
-      </c>
-      <c r="E25" s="7">
-        <v>4914286</v>
-      </c>
-      <c r="F25" s="7">
-        <v>103200.00600000001</v>
-      </c>
-      <c r="G25" s="12">
         <v>412800.02400000003</v>
       </c>
     </row>
@@ -1098,6 +869,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003BCCB9B5D56190479D120461115E6614" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="694c9ef43406d07ebbc4d00831973e81">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a85dd53e-9dc9-4440-b94c-470ac894bf13" xmlns:ns3="6dffc5d9-a4b9-40ab-9bcb-cdf7f4717af5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb4cd0ce00e0351ef31eebcc4089865e" ns2:_="" ns3:_="">
     <xsd:import namespace="a85dd53e-9dc9-4440-b94c-470ac894bf13"/>
@@ -1314,22 +1100,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23EC88B3-9A0D-4617-BE7E-DAD1A0F38BEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C46E565-7D65-44D1-810A-0E2049BC8ABF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97832C11-7BAC-457A-9584-2966DB486378}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1346,21 +1134,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C46E565-7D65-44D1-810A-0E2049BC8ABF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23EC88B3-9A0D-4617-BE7E-DAD1A0F38BEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>